--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2892161.407290731</v>
+        <v>-2893944.313150594</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918216</v>
+        <v>6028847.321918217</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>205.6133126624495</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374289</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9594913636451</v>
+        <v>332.959491363645</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741865</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.669204851771</v>
+        <v>143.6937455762676</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>86.96444984558475</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>93.13976518403315</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035619</v>
+        <v>67.87633176035617</v>
       </c>
       <c r="E12" t="n">
-        <v>78.07634665111839</v>
+        <v>78.07634665111836</v>
       </c>
       <c r="F12" t="n">
-        <v>65.50047858910132</v>
+        <v>65.50047858910129</v>
       </c>
       <c r="G12" t="n">
-        <v>56.29028837994818</v>
+        <v>56.29028837994815</v>
       </c>
       <c r="H12" t="n">
-        <v>18.32961418785547</v>
+        <v>18.32961418785544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.988926598084504</v>
       </c>
       <c r="S12" t="n">
-        <v>64.54059415929279</v>
+        <v>64.54059415929277</v>
       </c>
       <c r="T12" t="n">
         <v>114.6124383743876</v>
       </c>
       <c r="U12" t="n">
-        <v>224.5952371258749</v>
+        <v>225.8437179376209</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>172.1262493566371</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>126.2042513991949</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>196.4452883674736</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434527</v>
+        <v>87.67808729434525</v>
       </c>
       <c r="D13" t="n">
-        <v>69.0467392139298</v>
+        <v>69.04673921392977</v>
       </c>
       <c r="E13" t="n">
-        <v>66.86522884228673</v>
+        <v>66.86522884228658</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864869</v>
+        <v>65.85231421864866</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121776</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630858</v>
       </c>
       <c r="I13" t="n">
-        <v>38.45470665437194</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968432</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S13" t="n">
-        <v>122.7587393607691</v>
+        <v>122.758739360769</v>
       </c>
       <c r="T13" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V13" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195454</v>
       </c>
       <c r="W13" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323084</v>
       </c>
       <c r="X13" t="n">
         <v>146.1409215847546</v>
@@ -1607,25 +1607,25 @@
         <v>303.165107859198</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>275.1143078164004</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9594913636451</v>
+        <v>332.959491363645</v>
       </c>
       <c r="H14" t="n">
-        <v>126.6787528340184</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U14" t="n">
-        <v>171.5549581157774</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X14" t="n">
-        <v>290.1623668741865</v>
+        <v>132.7295452056959</v>
       </c>
       <c r="Y14" t="n">
         <v>306.669204851771</v>
@@ -1701,10 +1701,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H15" t="n">
-        <v>97.89834799213801</v>
+        <v>97.89834799213803</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285297</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.98892659808449</v>
+        <v>7.988926598084504</v>
       </c>
       <c r="S15" t="n">
-        <v>64.54059415929279</v>
+        <v>80.78423903134903</v>
       </c>
       <c r="T15" t="n">
-        <v>172.1390858878738</v>
+        <v>194.1811721786702</v>
       </c>
       <c r="U15" t="n">
         <v>225.8437179376209</v>
@@ -1765,25 +1765,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C16" t="n">
-        <v>87.67808729434527</v>
+        <v>87.67808729434525</v>
       </c>
       <c r="D16" t="n">
-        <v>69.0467392139298</v>
+        <v>69.04673921392977</v>
       </c>
       <c r="E16" t="n">
-        <v>66.86522884228661</v>
+        <v>66.86522884228658</v>
       </c>
       <c r="F16" t="n">
-        <v>65.85231421864869</v>
+        <v>65.85231421864866</v>
       </c>
       <c r="G16" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121776</v>
       </c>
       <c r="H16" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630858</v>
       </c>
       <c r="I16" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437191</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968431</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S16" t="n">
-        <v>122.7587393607691</v>
+        <v>122.758739360769</v>
       </c>
       <c r="T16" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U16" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V16" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195454</v>
       </c>
       <c r="W16" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323084</v>
       </c>
       <c r="X16" t="n">
         <v>146.1409215847546</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.5963740549155</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C17" t="n">
-        <v>206.1354241624424</v>
+        <v>206.1354241624423</v>
       </c>
       <c r="D17" t="n">
-        <v>182.1192474049286</v>
+        <v>195.5455740121178</v>
       </c>
       <c r="E17" t="n">
-        <v>222.7929024636967</v>
+        <v>222.7929024636966</v>
       </c>
       <c r="F17" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331462</v>
       </c>
       <c r="G17" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593624</v>
       </c>
       <c r="H17" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.81295415566578</v>
+        <v>51.81295415566569</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149478</v>
+        <v>91.98622431149469</v>
       </c>
       <c r="V17" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615697</v>
       </c>
       <c r="W17" t="n">
-        <v>190.1035011088479</v>
+        <v>176.6771745016599</v>
       </c>
       <c r="X17" t="n">
-        <v>210.5936330699039</v>
+        <v>210.5936330699038</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8590221842308</v>
+        <v>72.53393325200422</v>
       </c>
       <c r="H18" t="n">
         <v>97.89834799213803</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285298</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>7.988926598084504</v>
       </c>
       <c r="S18" t="n">
-        <v>42.49850786849635</v>
+        <v>144.1093279635754</v>
       </c>
       <c r="T18" t="n">
         <v>194.1811721786702</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.69451257337218</v>
+        <v>20.69451257337209</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062716</v>
+        <v>8.109353490062631</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.608961026935233</v>
+        <v>7.608961026935148</v>
       </c>
       <c r="H19" t="n">
-        <v>60.56643195606727</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.3338652339669</v>
       </c>
       <c r="S19" t="n">
         <v>202.3274731650516</v>
       </c>
       <c r="T19" t="n">
-        <v>63.49049600343954</v>
+        <v>157.1325078100836</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1136771630371</v>
+        <v>127.113677163037</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.0001757152628</v>
       </c>
       <c r="W19" t="n">
-        <v>127.3855307280259</v>
+        <v>127.3855307280258</v>
       </c>
       <c r="X19" t="n">
-        <v>66.57218778047204</v>
+        <v>66.57218778047195</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.44718574352967</v>
+        <v>59.44718574352959</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.5963740549155</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C20" t="n">
-        <v>206.1354241624424</v>
+        <v>206.1354241624423</v>
       </c>
       <c r="D20" t="n">
         <v>195.5455740121178</v>
       </c>
       <c r="E20" t="n">
-        <v>222.7929024636967</v>
+        <v>222.7929024636966</v>
       </c>
       <c r="F20" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331462</v>
       </c>
       <c r="G20" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593624</v>
       </c>
       <c r="H20" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566578</v>
+        <v>51.81295415566569</v>
       </c>
       <c r="U20" t="n">
-        <v>78.55989770430486</v>
+        <v>91.98622431149469</v>
       </c>
       <c r="V20" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615697</v>
       </c>
       <c r="W20" t="n">
-        <v>190.1035011088479</v>
+        <v>176.6771745016591</v>
       </c>
       <c r="X20" t="n">
-        <v>210.5936330699039</v>
+        <v>210.5936330699038</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8590221842308</v>
+        <v>34.24820208915123</v>
       </c>
       <c r="H21" t="n">
-        <v>34.57325905991149</v>
+        <v>97.89834799213803</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.28573116285298</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337218</v>
+        <v>20.69451257337209</v>
       </c>
       <c r="C22" t="n">
-        <v>8.109353490062716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.608961026935233</v>
+        <v>78.69738757335602</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648652</v>
+        <v>43.19000555648643</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6279636120047</v>
+        <v>63.49049600343945</v>
       </c>
       <c r="U22" t="n">
-        <v>127.1136771630371</v>
+        <v>127.113677163037</v>
       </c>
       <c r="V22" t="n">
-        <v>153.5666076713299</v>
+        <v>93.0001757152628</v>
       </c>
       <c r="W22" t="n">
-        <v>127.3855307280259</v>
+        <v>127.3855307280258</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>66.57218778047195</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.44718574352967</v>
+        <v>59.44718574352959</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.5963740549155</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C23" t="n">
-        <v>206.1354241624424</v>
+        <v>206.1354241624423</v>
       </c>
       <c r="D23" t="n">
         <v>195.5455740121178</v>
       </c>
       <c r="E23" t="n">
-        <v>222.7929024636967</v>
+        <v>222.7929024636966</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331462</v>
       </c>
       <c r="G23" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593624</v>
       </c>
       <c r="H23" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566578</v>
+        <v>51.81295415566569</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149478</v>
+        <v>91.98622431149469</v>
       </c>
       <c r="V23" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615697</v>
       </c>
       <c r="W23" t="n">
-        <v>190.1035011088479</v>
+        <v>190.1035011088478</v>
       </c>
       <c r="X23" t="n">
-        <v>210.5936330699039</v>
+        <v>210.5936330699038</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="24">
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.988926598084504</v>
       </c>
       <c r="S24" t="n">
-        <v>63.91376107376963</v>
+        <v>55.92483447568399</v>
       </c>
       <c r="T24" t="n">
         <v>194.1811721786702</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>20.69451257337209</v>
       </c>
       <c r="C25" t="n">
-        <v>69.68870006976759</v>
+        <v>8.109353490062631</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.608961026935233</v>
+        <v>63.44737045898106</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648652</v>
+        <v>43.19000555648643</v>
       </c>
       <c r="T25" t="n">
-        <v>63.49049600343954</v>
+        <v>63.49049600343945</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1136771630371</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V25" t="n">
-        <v>93.00017571526288</v>
+        <v>93.0001757152628</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3855307280259</v>
+        <v>127.3855307280258</v>
       </c>
       <c r="X25" t="n">
-        <v>66.57218778047204</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>59.44718574352959</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040939</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997371</v>
       </c>
       <c r="T26" t="n">
         <v>131.3816879599483</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213803</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285299</v>
+        <v>38.28573116285298</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084518</v>
+        <v>7.988926598084504</v>
       </c>
       <c r="S27" t="n">
         <v>144.1093279635754</v>
@@ -2713,25 +2713,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434523</v>
+        <v>87.67808729434522</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392975</v>
+        <v>69.04673921392974</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228657</v>
+        <v>66.86522884228656</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864864</v>
+        <v>65.85231421864863</v>
       </c>
       <c r="G28" t="n">
         <v>87.17769483121774</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630858</v>
+        <v>71.59325136630855</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437188</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76513142968429</v>
+        <v>41.76513142968426</v>
       </c>
       <c r="S28" t="n">
         <v>122.758739360769</v>
@@ -2810,7 +2810,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997372</v>
       </c>
       <c r="T29" t="n">
         <v>131.3816879599483</v>
@@ -2950,25 +2950,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434523</v>
+        <v>87.67808729434522</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392975</v>
+        <v>69.04673921392974</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228657</v>
+        <v>66.86522884228656</v>
       </c>
       <c r="F31" t="n">
-        <v>65.85231421864864</v>
+        <v>65.85231421864863</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121774</v>
+        <v>87.17769483121772</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630858</v>
+        <v>71.59325136630856</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437189</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76513142968427</v>
+        <v>41.76513142968426</v>
       </c>
       <c r="S31" t="n">
         <v>122.758739360769</v>
       </c>
       <c r="T31" t="n">
-        <v>143.0592298077221</v>
+        <v>143.059229807722</v>
       </c>
       <c r="U31" t="n">
         <v>206.6824109673196</v>
@@ -3038,7 +3038,7 @@
         <v>302.3616362679792</v>
       </c>
       <c r="F32" t="n">
-        <v>327.3073119374278</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G32" t="n">
         <v>332.959491363645</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997318</v>
       </c>
       <c r="T32" t="n">
         <v>131.3816879599483</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.95055916124402</v>
+        <v>145.5362292959216</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334838</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>140.4552752973459</v>
       </c>
       <c r="V37" t="n">
-        <v>203.1550149686473</v>
+        <v>106.3417738495717</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X37" t="n">
         <v>79.91378591478082</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783845</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9379721892243</v>
+        <v>236.9379721892242</v>
       </c>
       <c r="C38" t="n">
         <v>219.4770222967512</v>
@@ -3509,13 +3509,13 @@
         <v>208.8871721464266</v>
       </c>
       <c r="E38" t="n">
-        <v>236.1345005980055</v>
+        <v>236.1345005980054</v>
       </c>
       <c r="F38" t="n">
-        <v>261.0801762674552</v>
+        <v>261.0801762674551</v>
       </c>
       <c r="G38" t="n">
-        <v>266.7323556936714</v>
+        <v>266.7323556936713</v>
       </c>
       <c r="H38" t="n">
         <v>165.2644580656729</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.15455228997459</v>
+        <v>65.15455228997456</v>
       </c>
       <c r="U38" t="n">
         <v>105.3278224458036</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768096</v>
       </c>
       <c r="C40" t="n">
-        <v>21.45095162437153</v>
+        <v>21.4509516243715</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.638093172312864</v>
+        <v>0.6380931723128356</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124402</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334866</v>
+        <v>5.366115696334838</v>
       </c>
       <c r="I40" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513294</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.53160369079533</v>
+        <v>153.3448448098709</v>
       </c>
       <c r="T40" t="n">
-        <v>196.0483202689123</v>
+        <v>76.83209413774833</v>
       </c>
       <c r="U40" t="n">
         <v>140.4552752973459</v>
@@ -3724,10 +3724,10 @@
         <v>140.7271288623347</v>
       </c>
       <c r="X40" t="n">
-        <v>79.91378591478085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.78878387783848</v>
+        <v>72.78878387783845</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>236.1345005980054</v>
       </c>
       <c r="F41" t="n">
-        <v>261.0801762674551</v>
+        <v>261.080176267455</v>
       </c>
       <c r="G41" t="n">
         <v>266.7323556936713</v>
       </c>
       <c r="H41" t="n">
-        <v>165.2644580656729</v>
+        <v>165.2644580656728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997456</v>
+        <v>65.1545522899745</v>
       </c>
       <c r="U41" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458035</v>
       </c>
       <c r="V41" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958785</v>
       </c>
       <c r="W41" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431566</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042126</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.4420691817973</v>
+        <v>240.4420691817972</v>
       </c>
     </row>
     <row r="42">
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768096</v>
+        <v>34.0361107076809</v>
       </c>
       <c r="C43" t="n">
-        <v>21.4509516243715</v>
+        <v>21.45095162437144</v>
       </c>
       <c r="D43" t="n">
-        <v>2.819603543956021</v>
+        <v>2.819603543955964</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6380931723127787</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>112.7691777281315</v>
+        <v>166.7464286355003</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334838</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.81324111907632</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513294</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.5316036907953</v>
+        <v>56.53160369079524</v>
       </c>
       <c r="T43" t="n">
-        <v>76.83209413774833</v>
+        <v>76.83209413774827</v>
       </c>
       <c r="U43" t="n">
-        <v>140.4552752973459</v>
+        <v>140.4552752973458</v>
       </c>
       <c r="V43" t="n">
-        <v>106.3417738495717</v>
+        <v>106.3417738495716</v>
       </c>
       <c r="W43" t="n">
-        <v>140.7271288623347</v>
+        <v>140.7271288623346</v>
       </c>
       <c r="X43" t="n">
-        <v>79.91378591478082</v>
+        <v>79.91378591478076</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.78878387783845</v>
+        <v>72.7887838778384</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>236.9379721892242</v>
       </c>
       <c r="C44" t="n">
-        <v>219.4770222967511</v>
+        <v>219.4770222967512</v>
       </c>
       <c r="D44" t="n">
-        <v>208.8871721464265</v>
+        <v>208.8871721464266</v>
       </c>
       <c r="E44" t="n">
         <v>236.1345005980054</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.15455228997448</v>
+        <v>65.1545522899745</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458035</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>34.0361107076809</v>
       </c>
       <c r="C46" t="n">
-        <v>21.45095162437141</v>
+        <v>118.2641927434477</v>
       </c>
       <c r="D46" t="n">
-        <v>2.819603543955935</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6380931723127503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95055916124393</v>
+        <v>20.95055916124396</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334752</v>
+        <v>5.366115696334781</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079522</v>
+        <v>56.53160369079524</v>
       </c>
       <c r="T46" t="n">
-        <v>76.83209413774824</v>
+        <v>76.83209413774827</v>
       </c>
       <c r="U46" t="n">
         <v>140.4552752973458</v>
       </c>
       <c r="V46" t="n">
-        <v>203.1550149686481</v>
+        <v>106.3417738495716</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623346</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478073</v>
+        <v>79.91378591478076</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.78878387783837</v>
+        <v>72.7887838778384</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>911.0287049631279</v>
+        <v>1008.754284362653</v>
       </c>
       <c r="C11" t="n">
-        <v>911.0287049631279</v>
+        <v>1008.754284362653</v>
       </c>
       <c r="D11" t="n">
-        <v>911.0287049631279</v>
+        <v>1008.754284362653</v>
       </c>
       <c r="E11" t="n">
-        <v>703.3384901525728</v>
+        <v>703.3384901525726</v>
       </c>
       <c r="F11" t="n">
-        <v>372.7250437511295</v>
+        <v>372.7250437511293</v>
       </c>
       <c r="G11" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199297</v>
       </c>
       <c r="H11" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199297</v>
       </c>
       <c r="I11" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199297</v>
       </c>
       <c r="J11" t="n">
         <v>257.7009633964341</v>
@@ -5060,31 +5060,31 @@
         <v>1533.387093289898</v>
       </c>
       <c r="Q11" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099648</v>
       </c>
       <c r="R11" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099648</v>
       </c>
       <c r="S11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463311</v>
       </c>
       <c r="T11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463311</v>
       </c>
       <c r="U11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463311</v>
       </c>
       <c r="V11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463311</v>
       </c>
       <c r="W11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463311</v>
       </c>
       <c r="X11" t="n">
-        <v>1527.022960226733</v>
+        <v>1460.126863590395</v>
       </c>
       <c r="Y11" t="n">
-        <v>1217.256086639086</v>
+        <v>1314.98166603861</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.8180409158266</v>
+        <v>419.4455825276623</v>
       </c>
       <c r="C12" t="n">
-        <v>325.3650116346996</v>
+        <v>325.3650116346995</v>
       </c>
       <c r="D12" t="n">
-        <v>256.8030603616126</v>
+        <v>256.8030603616124</v>
       </c>
       <c r="E12" t="n">
-        <v>177.9380637443213</v>
+        <v>177.9380637443211</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7759641593704</v>
+        <v>111.7759641593703</v>
       </c>
       <c r="G12" t="n">
-        <v>54.9170870079076</v>
+        <v>54.91708700790755</v>
       </c>
       <c r="H12" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199297</v>
       </c>
       <c r="I12" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199297</v>
       </c>
       <c r="J12" t="n">
         <v>174.5128983801548</v>
       </c>
       <c r="K12" t="n">
-        <v>275.3661243424327</v>
+        <v>537.1867089848855</v>
       </c>
       <c r="L12" t="n">
-        <v>457.2982738649871</v>
+        <v>722.7549959053265</v>
       </c>
       <c r="M12" t="n">
-        <v>907.7770482396502</v>
+        <v>954.418101385299</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.98023170234</v>
+        <v>1206.621284847989</v>
       </c>
       <c r="O12" t="n">
-        <v>1368.47707748074</v>
+        <v>1415.118130626388</v>
       </c>
       <c r="P12" t="n">
         <v>1563.122164526896</v>
       </c>
       <c r="Q12" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099648</v>
       </c>
       <c r="R12" t="n">
-        <v>1820.116260099649</v>
+        <v>1812.0466372733</v>
       </c>
       <c r="S12" t="n">
-        <v>1754.923740746828</v>
+        <v>1746.854117920479</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.153600974719</v>
+        <v>1631.083978148371</v>
       </c>
       <c r="U12" t="n">
-        <v>1412.289725089997</v>
+        <v>1402.959010534612</v>
       </c>
       <c r="V12" t="n">
-        <v>1177.137616858254</v>
+        <v>1167.80690230287</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.272718518217</v>
+        <v>913.5695455746682</v>
       </c>
       <c r="X12" t="n">
-        <v>875.7936767008484</v>
+        <v>705.7180453691353</v>
       </c>
       <c r="Y12" t="n">
-        <v>668.0333779358946</v>
+        <v>507.2884611595661</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334158</v>
+        <v>527.9861862334162</v>
       </c>
       <c r="C13" t="n">
-        <v>439.422461693673</v>
+        <v>439.4224616936735</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695015</v>
+        <v>369.678280669502</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752728</v>
+        <v>302.1376454752732</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655266</v>
+        <v>235.6201563655271</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5618787582359</v>
+        <v>147.5618787582358</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671211</v>
+        <v>75.24546323671208</v>
       </c>
       <c r="I13" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199297</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8596221047545</v>
+        <v>109.859622104754</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180463</v>
+        <v>309.7340958180458</v>
       </c>
       <c r="L13" t="n">
-        <v>599.0017100013554</v>
+        <v>599.0017100013549</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035639</v>
+        <v>910.1008877035634</v>
       </c>
       <c r="N13" t="n">
         <v>1221.11048570127</v>
@@ -5218,31 +5218,31 @@
         <v>1723.471626070057</v>
       </c>
       <c r="Q13" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099648</v>
       </c>
       <c r="R13" t="n">
         <v>1777.929258655523</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028484</v>
+        <v>1653.930532028483</v>
       </c>
       <c r="T13" t="n">
         <v>1509.426259495431</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.656147407229</v>
+        <v>1300.65614740723</v>
       </c>
       <c r="V13" t="n">
         <v>1126.344117589507</v>
       </c>
       <c r="W13" t="n">
-        <v>917.2994059407104</v>
+        <v>917.2994059407106</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308572</v>
+        <v>769.6823134308574</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754913</v>
+        <v>629.2621926754916</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1080.813986957812</v>
+        <v>1280.416099911671</v>
       </c>
       <c r="C14" t="n">
-        <v>792.2239284055647</v>
+        <v>1280.416099911671</v>
       </c>
       <c r="D14" t="n">
-        <v>514.3306881869787</v>
+        <v>1280.416099911671</v>
       </c>
       <c r="E14" t="n">
-        <v>514.3306881869787</v>
+        <v>975.0003057015911</v>
       </c>
       <c r="F14" t="n">
-        <v>514.3306881869787</v>
+        <v>644.3868593001478</v>
       </c>
       <c r="G14" t="n">
-        <v>178.0079696378423</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="H14" t="n">
-        <v>50.04963344186408</v>
+        <v>74.23424808874223</v>
       </c>
       <c r="I14" t="n">
         <v>50.04963344186408</v>
       </c>
       <c r="J14" t="n">
-        <v>103.9426226159522</v>
+        <v>271.3482716363052</v>
       </c>
       <c r="K14" t="n">
-        <v>235.452761317646</v>
+        <v>723.7623687834521</v>
       </c>
       <c r="L14" t="n">
-        <v>786.1458771554999</v>
+        <v>923.8140866227798</v>
       </c>
       <c r="M14" t="n">
-        <v>1405.510090998568</v>
+        <v>1178.079606002498</v>
       </c>
       <c r="N14" t="n">
-        <v>2024.874304841636</v>
+        <v>1441.07321569103</v>
       </c>
       <c r="O14" t="n">
-        <v>2259.876451602304</v>
+        <v>1706.932699903004</v>
       </c>
       <c r="P14" t="n">
-        <v>2425.944346036759</v>
+        <v>2191.581315427226</v>
       </c>
       <c r="Q14" t="n">
-        <v>2502.481672093204</v>
+        <v>2478.310482236977</v>
       </c>
       <c r="R14" t="n">
         <v>2502.481672093204</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.585575456866</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="T14" t="n">
-        <v>2435.585575456866</v>
+        <v>2302.876799739747</v>
       </c>
       <c r="U14" t="n">
-        <v>2262.297738976283</v>
+        <v>2302.876799739747</v>
       </c>
       <c r="V14" t="n">
-        <v>2262.297738976283</v>
+        <v>2302.876799739747</v>
       </c>
       <c r="W14" t="n">
-        <v>1989.901542094333</v>
+        <v>2030.480602857797</v>
       </c>
       <c r="X14" t="n">
-        <v>1696.808242221417</v>
+        <v>1896.410355175276</v>
       </c>
       <c r="Y14" t="n">
-        <v>1387.04136863377</v>
+        <v>1586.643481587629</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>954.0000968165722</v>
+        <v>915.3276410965187</v>
       </c>
       <c r="C15" t="n">
-        <v>779.5470675354452</v>
+        <v>740.8746118153917</v>
       </c>
       <c r="D15" t="n">
-        <v>630.6126578741939</v>
+        <v>591.9402021541405</v>
       </c>
       <c r="E15" t="n">
-        <v>471.3752028687385</v>
+        <v>432.7027471486849</v>
       </c>
       <c r="F15" t="n">
-        <v>324.8406448956234</v>
+        <v>286.1681891755699</v>
       </c>
       <c r="G15" t="n">
-        <v>187.6093093559964</v>
+        <v>148.9368536359429</v>
       </c>
       <c r="H15" t="n">
-        <v>88.72208916191758</v>
+        <v>50.04963344186408</v>
       </c>
       <c r="I15" t="n">
         <v>50.04963344186408</v>
@@ -5358,10 +5358,10 @@
         <v>188.1602066200259</v>
       </c>
       <c r="K15" t="n">
-        <v>550.8340172247567</v>
+        <v>550.8340172247566</v>
       </c>
       <c r="L15" t="n">
-        <v>1089.842266945344</v>
+        <v>1089.842266945345</v>
       </c>
       <c r="M15" t="n">
         <v>1321.505372425317</v>
@@ -5382,25 +5382,25 @@
         <v>2494.412049266856</v>
       </c>
       <c r="S15" t="n">
-        <v>2429.219529914035</v>
+        <v>2412.811807821049</v>
       </c>
       <c r="T15" t="n">
-        <v>2255.341665380829</v>
+        <v>2216.669209660776</v>
       </c>
       <c r="U15" t="n">
-        <v>2027.216697767071</v>
+        <v>1988.544242047018</v>
       </c>
       <c r="V15" t="n">
-        <v>1792.064589535328</v>
+        <v>1753.392133815275</v>
       </c>
       <c r="W15" t="n">
-        <v>1537.827232807127</v>
+        <v>1499.154777087073</v>
       </c>
       <c r="X15" t="n">
-        <v>1329.975732601594</v>
+        <v>1291.303276881541</v>
       </c>
       <c r="Y15" t="n">
-        <v>1122.21543383664</v>
+        <v>1083.542978116587</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.633494473287</v>
+        <v>541.6334944732864</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335443</v>
+        <v>453.0697699335437</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093728</v>
+        <v>383.3255889093722</v>
       </c>
       <c r="E16" t="n">
-        <v>315.7849537151438</v>
+        <v>315.7849537151433</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053977</v>
+        <v>249.2674646053972</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2091869981066</v>
+        <v>161.2091869981068</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658321</v>
+        <v>88.89277147658299</v>
       </c>
       <c r="I16" t="n">
         <v>50.04963344186408</v>
       </c>
       <c r="J16" t="n">
-        <v>123.5069303446256</v>
+        <v>123.5069303446255</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579175</v>
+        <v>323.3814040579174</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412263</v>
+        <v>612.6490182412265</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434347</v>
+        <v>923.7481959434349</v>
       </c>
       <c r="N16" t="n">
         <v>1234.757793941141</v>
@@ -5452,7 +5452,7 @@
         <v>1512.022588807296</v>
       </c>
       <c r="P16" t="n">
-        <v>1737.118934309928</v>
+        <v>1737.118934309929</v>
       </c>
       <c r="Q16" t="n">
         <v>1833.76356833952</v>
@@ -5467,19 +5467,19 @@
         <v>1523.073567735302</v>
       </c>
       <c r="U16" t="n">
-        <v>1314.303455647101</v>
+        <v>1314.3034556471</v>
       </c>
       <c r="V16" t="n">
-        <v>1139.991425829378</v>
+        <v>1139.991425829377</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805816</v>
+        <v>930.946714180581</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707284</v>
+        <v>783.3296216707276</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153625</v>
+        <v>642.9095009153618</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1326.918087638774</v>
+        <v>1340.480033706641</v>
       </c>
       <c r="C17" t="n">
-        <v>1118.70048747469</v>
+        <v>1132.262433542558</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7416517121364</v>
+        <v>934.7416517121361</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6983158902206</v>
+        <v>709.6983158902203</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769414</v>
+        <v>459.4573278769412</v>
       </c>
       <c r="G17" t="n">
         <v>203.5070677159692</v>
@@ -5516,25 +5516,25 @@
         <v>271.3482716363052</v>
       </c>
       <c r="K17" t="n">
-        <v>723.7623687834521</v>
+        <v>402.858410337999</v>
       </c>
       <c r="L17" t="n">
-        <v>923.8140866227798</v>
+        <v>602.9101281773267</v>
       </c>
       <c r="M17" t="n">
-        <v>1178.079606002498</v>
+        <v>1222.274342020395</v>
       </c>
       <c r="N17" t="n">
-        <v>1441.07321569103</v>
+        <v>1485.267951708926</v>
       </c>
       <c r="O17" t="n">
-        <v>1706.932699903004</v>
+        <v>1731.103889759231</v>
       </c>
       <c r="P17" t="n">
-        <v>2191.581315427226</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.310482236977</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R17" t="n">
         <v>2502.481672093204</v>
@@ -5546,19 +5546,19 @@
         <v>2450.145354764249</v>
       </c>
       <c r="U17" t="n">
-        <v>2357.22997667183</v>
+        <v>2357.229976671831</v>
       </c>
       <c r="V17" t="n">
-        <v>2186.912006104587</v>
+        <v>2186.912006104588</v>
       </c>
       <c r="W17" t="n">
-        <v>1994.888267610802</v>
+        <v>2008.450213678669</v>
       </c>
       <c r="X17" t="n">
-        <v>1782.16742612605</v>
+        <v>1795.729372193918</v>
       </c>
       <c r="Y17" t="n">
-        <v>1552.773010926567</v>
+        <v>1566.334956994435</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>954.0000968165722</v>
+        <v>851.3629048013404</v>
       </c>
       <c r="C18" t="n">
-        <v>779.5470675354452</v>
+        <v>676.9098755202134</v>
       </c>
       <c r="D18" t="n">
-        <v>630.6126578741939</v>
+        <v>527.9754658589621</v>
       </c>
       <c r="E18" t="n">
-        <v>471.3752028687385</v>
+        <v>368.7380108535066</v>
       </c>
       <c r="F18" t="n">
-        <v>324.8406448956234</v>
+        <v>222.2034528803916</v>
       </c>
       <c r="G18" t="n">
-        <v>187.6093093559964</v>
+        <v>148.9368536359429</v>
       </c>
       <c r="H18" t="n">
-        <v>88.72208916191761</v>
+        <v>50.04963344186408</v>
       </c>
       <c r="I18" t="n">
         <v>50.04963344186408</v>
@@ -5598,16 +5598,16 @@
         <v>550.8340172247566</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.898108597735</v>
+        <v>1089.842266945345</v>
       </c>
       <c r="M18" t="n">
-        <v>1331.561214077708</v>
+        <v>1321.505372425317</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.764397540398</v>
+        <v>1573.708555888007</v>
       </c>
       <c r="O18" t="n">
-        <v>1792.261243318797</v>
+        <v>1782.205401666406</v>
       </c>
       <c r="P18" t="n">
         <v>2245.487576520452</v>
@@ -5619,25 +5619,25 @@
         <v>2494.412049266856</v>
       </c>
       <c r="S18" t="n">
-        <v>2451.484263541102</v>
+        <v>2348.847071525871</v>
       </c>
       <c r="T18" t="n">
-        <v>2255.341665380829</v>
+        <v>2152.704473365598</v>
       </c>
       <c r="U18" t="n">
-        <v>2027.216697767071</v>
+        <v>1924.579505751839</v>
       </c>
       <c r="V18" t="n">
-        <v>1792.064589535328</v>
+        <v>1689.427397520097</v>
       </c>
       <c r="W18" t="n">
-        <v>1537.827232807127</v>
+        <v>1435.190040791895</v>
       </c>
       <c r="X18" t="n">
-        <v>1329.975732601594</v>
+        <v>1227.338540586362</v>
       </c>
       <c r="Y18" t="n">
-        <v>1122.21543383664</v>
+        <v>1019.578241821408</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>280.4417073036294</v>
+        <v>224.0392735338866</v>
       </c>
       <c r="C19" t="n">
-        <v>272.2504411520509</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="D19" t="n">
-        <v>272.2504411520509</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3373475696578</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="F19" t="n">
-        <v>124.3373475696578</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="G19" t="n">
-        <v>116.6515283505313</v>
+        <v>208.1621881631818</v>
       </c>
       <c r="H19" t="n">
         <v>55.47331425349367</v>
@@ -5695,28 +5695,28 @@
         <v>1208.89494617308</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.89494617308</v>
+        <v>1086.33548634079</v>
       </c>
       <c r="S19" t="n">
-        <v>1004.523761157876</v>
+        <v>881.9643013255865</v>
       </c>
       <c r="T19" t="n">
-        <v>940.3919470129879</v>
+        <v>723.2445964669162</v>
       </c>
       <c r="U19" t="n">
-        <v>811.9942933129504</v>
+        <v>594.8469427668788</v>
       </c>
       <c r="V19" t="n">
-        <v>557.3098051070635</v>
+        <v>500.9073713373203</v>
       </c>
       <c r="W19" t="n">
-        <v>428.6375518464313</v>
+        <v>372.2351180766882</v>
       </c>
       <c r="X19" t="n">
-        <v>361.3929177247424</v>
+        <v>304.9904839549994</v>
       </c>
       <c r="Y19" t="n">
-        <v>301.3452553575407</v>
+        <v>244.9428215877978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1340.480033706642</v>
+        <v>1340.480033706641</v>
       </c>
       <c r="C20" t="n">
-        <v>1132.262433542559</v>
+        <v>1132.262433542558</v>
       </c>
       <c r="D20" t="n">
-        <v>934.7416517121367</v>
+        <v>934.7416517121361</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6983158902208</v>
+        <v>709.6983158902203</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769416</v>
+        <v>459.4573278769413</v>
       </c>
       <c r="G20" t="n">
         <v>203.5070677159692</v>
@@ -5753,25 +5753,25 @@
         <v>271.3482716363052</v>
       </c>
       <c r="K20" t="n">
-        <v>402.858410337999</v>
+        <v>723.7623687834521</v>
       </c>
       <c r="L20" t="n">
-        <v>602.9101281773267</v>
+        <v>923.8140866227798</v>
       </c>
       <c r="M20" t="n">
-        <v>1222.274342020395</v>
+        <v>1178.079606002498</v>
       </c>
       <c r="N20" t="n">
-        <v>1841.638555863463</v>
+        <v>1441.07321569103</v>
       </c>
       <c r="O20" t="n">
-        <v>2076.640702624131</v>
+        <v>1706.932699903004</v>
       </c>
       <c r="P20" t="n">
-        <v>2242.708597058586</v>
+        <v>2191.581315427226</v>
       </c>
       <c r="Q20" t="n">
-        <v>2502.481672093204</v>
+        <v>2478.310482236977</v>
       </c>
       <c r="R20" t="n">
         <v>2502.481672093204</v>
@@ -5783,16 +5783,16 @@
         <v>2450.145354764249</v>
       </c>
       <c r="U20" t="n">
-        <v>2370.791922739698</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V20" t="n">
-        <v>2200.473952172456</v>
+        <v>2186.912006104587</v>
       </c>
       <c r="W20" t="n">
-        <v>2008.45021367867</v>
+        <v>2008.450213678669</v>
       </c>
       <c r="X20" t="n">
-        <v>1795.729372193919</v>
+        <v>1795.729372193918</v>
       </c>
       <c r="Y20" t="n">
         <v>1566.334956994435</v>
@@ -5820,10 +5820,10 @@
         <v>222.2034528803916</v>
       </c>
       <c r="G21" t="n">
-        <v>84.97211734076458</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H21" t="n">
-        <v>50.04963344186408</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I21" t="n">
         <v>50.04963344186408</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>219.2634932065918</v>
+        <v>601.931540856287</v>
       </c>
       <c r="C22" t="n">
-        <v>211.0722270550133</v>
+        <v>432.9953579283801</v>
       </c>
       <c r="D22" t="n">
-        <v>211.0722270550133</v>
+        <v>282.8787185160444</v>
       </c>
       <c r="E22" t="n">
-        <v>63.15913347262017</v>
+        <v>134.9656249336513</v>
       </c>
       <c r="F22" t="n">
-        <v>63.15913347262017</v>
+        <v>134.9656249336513</v>
       </c>
       <c r="G22" t="n">
         <v>55.47331425349367</v>
@@ -5938,22 +5938,22 @@
         <v>1165.268677934205</v>
       </c>
       <c r="T22" t="n">
-        <v>940.3919470129877</v>
+        <v>1101.136863789317</v>
       </c>
       <c r="U22" t="n">
-        <v>811.9942933129502</v>
+        <v>972.7392100892791</v>
       </c>
       <c r="V22" t="n">
-        <v>656.8765077863543</v>
+        <v>878.7996386597208</v>
       </c>
       <c r="W22" t="n">
-        <v>528.2042545257221</v>
+        <v>750.1273853990887</v>
       </c>
       <c r="X22" t="n">
-        <v>300.2147036277048</v>
+        <v>682.8827512773998</v>
       </c>
       <c r="Y22" t="n">
-        <v>240.1670412605031</v>
+        <v>622.8350889101982</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.75680811619</v>
+        <v>1340.756808116189</v>
       </c>
       <c r="C23" t="n">
         <v>1132.539207952106</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216843</v>
+        <v>935.0184261216837</v>
       </c>
       <c r="E23" t="n">
-        <v>709.9750902997685</v>
+        <v>709.9750902997679</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864894</v>
+        <v>459.7341022864888</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255176</v>
+        <v>203.7838421255175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141238</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141238</v>
       </c>
       <c r="J23" t="n">
         <v>271.6250460458535</v>
       </c>
       <c r="K23" t="n">
-        <v>724.0391431930004</v>
+        <v>403.1351847475473</v>
       </c>
       <c r="L23" t="n">
-        <v>924.0908610323281</v>
+        <v>603.186902586875</v>
       </c>
       <c r="M23" t="n">
-        <v>1178.356380412047</v>
+        <v>857.4524219665934</v>
       </c>
       <c r="N23" t="n">
-        <v>1441.349990100578</v>
+        <v>1120.446031655125</v>
       </c>
       <c r="O23" t="n">
-        <v>1744.942610236647</v>
+        <v>1720.771420380418</v>
       </c>
       <c r="P23" t="n">
-        <v>2229.59122576087</v>
+        <v>2205.420035904641</v>
       </c>
       <c r="Q23" t="n">
-        <v>2516.32039257062</v>
+        <v>2492.149202714392</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570619</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570619</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241665</v>
+        <v>2463.984075241664</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.068697149246</v>
+        <v>2371.068697149245</v>
       </c>
       <c r="V23" t="n">
-        <v>2200.750726582004</v>
+        <v>2200.750726582003</v>
       </c>
       <c r="W23" t="n">
-        <v>2008.726988088218</v>
+        <v>2008.726988088217</v>
       </c>
       <c r="X23" t="n">
         <v>1796.006146603466</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.611731403983</v>
+        <v>1566.611731403982</v>
       </c>
     </row>
     <row r="24">
@@ -6057,40 +6057,40 @@
         <v>325.1174193051718</v>
       </c>
       <c r="G24" t="n">
-        <v>187.8860837655448</v>
+        <v>187.8860837655447</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99886357146593</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141238</v>
       </c>
       <c r="J24" t="n">
         <v>188.4369810295742</v>
       </c>
       <c r="K24" t="n">
-        <v>551.110791634305</v>
+        <v>551.1107916343049</v>
       </c>
       <c r="L24" t="n">
         <v>1100.174883007284</v>
       </c>
       <c r="M24" t="n">
-        <v>1335.344092902733</v>
+        <v>1331.837988487256</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.547276365424</v>
+        <v>1584.041171949947</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.044122143823</v>
+        <v>1796.044122143821</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.326296997868</v>
+        <v>2259.326296997866</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570619</v>
       </c>
       <c r="R24" t="n">
-        <v>2516.32039257062</v>
+        <v>2508.250769744271</v>
       </c>
       <c r="S24" t="n">
         <v>2451.761037950651</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>280.7184817131774</v>
+        <v>280.7184817131782</v>
       </c>
       <c r="C25" t="n">
-        <v>210.3258553800788</v>
+        <v>272.5272155615998</v>
       </c>
       <c r="D25" t="n">
-        <v>210.3258553800788</v>
+        <v>272.5272155615998</v>
       </c>
       <c r="E25" t="n">
-        <v>210.3258553800788</v>
+        <v>272.5272155615998</v>
       </c>
       <c r="F25" t="n">
-        <v>63.43590788216849</v>
+        <v>272.5272155615998</v>
       </c>
       <c r="G25" t="n">
-        <v>55.75008866304199</v>
+        <v>208.43896257273</v>
       </c>
       <c r="H25" t="n">
-        <v>55.75008866304199</v>
+        <v>55.75008866304196</v>
       </c>
       <c r="I25" t="n">
-        <v>55.75008866304199</v>
+        <v>55.75008866304196</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141238</v>
       </c>
       <c r="K25" t="n">
         <v>171.4278350984645</v>
@@ -6175,22 +6175,22 @@
         <v>1165.545452343753</v>
       </c>
       <c r="T25" t="n">
-        <v>1101.413638198864</v>
+        <v>1101.413638198865</v>
       </c>
       <c r="U25" t="n">
-        <v>973.0159844988269</v>
+        <v>812.271067722499</v>
       </c>
       <c r="V25" t="n">
-        <v>879.0764130692685</v>
+        <v>718.3314962929405</v>
       </c>
       <c r="W25" t="n">
-        <v>750.4041598086362</v>
+        <v>589.6592430323084</v>
       </c>
       <c r="X25" t="n">
-        <v>683.1595256869473</v>
+        <v>361.669692134291</v>
       </c>
       <c r="Y25" t="n">
-        <v>462.3669465434172</v>
+        <v>301.6220297670894</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852649</v>
       </c>
       <c r="D26" t="n">
         <v>1303.874969634063</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239834</v>
+        <v>998.4591754239827</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225397</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734037</v>
+        <v>331.5230104734032</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113446</v>
+        <v>97.69311781113441</v>
       </c>
       <c r="I26" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J26" t="n">
         <v>294.8071413586974</v>
       </c>
       <c r="K26" t="n">
-        <v>426.3172800603911</v>
+        <v>747.2212385058443</v>
       </c>
       <c r="L26" t="n">
-        <v>1039.853600304665</v>
+        <v>1360.757558750118</v>
       </c>
       <c r="M26" t="n">
-        <v>1571.914794955432</v>
+        <v>2060.04147628774</v>
       </c>
       <c r="N26" t="n">
-        <v>2267.881859811828</v>
+        <v>2756.008541144136</v>
       </c>
       <c r="O26" t="n">
-        <v>2879.876186022614</v>
+        <v>2991.010687904804</v>
       </c>
       <c r="P26" t="n">
         <v>3364.524801546836</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356587</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R26" t="n">
         <v>3675.425158212814</v>
       </c>
       <c r="S26" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T26" t="n">
         <v>3475.820285859357</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378773</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.842020423368</v>
+        <v>3051.842020423367</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541418</v>
+        <v>2779.445823541417</v>
       </c>
       <c r="X26" t="n">
         <v>2486.352523668502</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.585650080855</v>
+        <v>2176.585650080854</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>977.4589665389645</v>
+        <v>977.4589665389643</v>
       </c>
       <c r="C27" t="n">
-        <v>803.0059372578376</v>
+        <v>803.0059372578373</v>
       </c>
       <c r="D27" t="n">
-        <v>654.0715275965863</v>
+        <v>654.0715275965861</v>
       </c>
       <c r="E27" t="n">
-        <v>494.8340725911307</v>
+        <v>494.8340725911306</v>
       </c>
       <c r="F27" t="n">
-        <v>348.2995146180157</v>
+        <v>348.2995146180156</v>
       </c>
       <c r="G27" t="n">
         <v>211.0681790783886</v>
@@ -6300,22 +6300,22 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I27" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J27" t="n">
         <v>211.6190763424181</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2928869471488</v>
+        <v>572.9581660479145</v>
       </c>
       <c r="L27" t="n">
-        <v>1123.356978320128</v>
+        <v>754.8903155704688</v>
       </c>
       <c r="M27" t="n">
-        <v>1447.601434162942</v>
+        <v>1447.601434162941</v>
       </c>
       <c r="N27" t="n">
-        <v>1699.804617625632</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O27" t="n">
         <v>1908.301463404031</v>
@@ -6348,7 +6348,7 @@
         <v>1353.434602323986</v>
       </c>
       <c r="Y27" t="n">
-        <v>1145.674303559033</v>
+        <v>1145.674303559032</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956789</v>
+        <v>565.0923641956788</v>
       </c>
       <c r="C28" t="n">
         <v>476.5286396559362</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317648</v>
+        <v>406.7844586317647</v>
       </c>
       <c r="E28" t="n">
         <v>339.2438234375359</v>
@@ -6376,31 +6376,31 @@
         <v>184.6680567204991</v>
       </c>
       <c r="H28" t="n">
-        <v>112.3516411989754</v>
+        <v>112.3516411989753</v>
       </c>
       <c r="I28" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J28" t="n">
         <v>146.9658000670179</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803097</v>
+        <v>346.8402737803098</v>
       </c>
       <c r="L28" t="n">
-        <v>636.1078879636186</v>
+        <v>636.1078879636189</v>
       </c>
       <c r="M28" t="n">
-        <v>947.207065665827</v>
+        <v>947.2070656658274</v>
       </c>
       <c r="N28" t="n">
-        <v>1258.216663663533</v>
+        <v>1258.216663663534</v>
       </c>
       <c r="O28" t="n">
-        <v>1535.481458529688</v>
+        <v>1535.481458529689</v>
       </c>
       <c r="P28" t="n">
-        <v>1760.57780403232</v>
+        <v>1760.577804032321</v>
       </c>
       <c r="Q28" t="n">
         <v>1857.222438061912</v>
@@ -6415,19 +6415,19 @@
         <v>1546.532437457694</v>
       </c>
       <c r="U28" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369492</v>
       </c>
       <c r="V28" t="n">
         <v>1163.45029555177</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029737</v>
+        <v>954.4055839029731</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931207</v>
+        <v>806.78849139312</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377543</v>
+        <v>666.3683706377542</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1870.358268404897</v>
+        <v>1870.358268404896</v>
       </c>
       <c r="C29" t="n">
         <v>1581.768209852649</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.874969634063</v>
+        <v>1303.874969634062</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239827</v>
+        <v>998.4591754239823</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225397</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734037</v>
+        <v>331.5230104734032</v>
       </c>
       <c r="H29" t="n">
         <v>97.69311781113441</v>
       </c>
       <c r="I29" t="n">
-        <v>73.50850316425625</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J29" t="n">
         <v>294.8071413586974</v>
       </c>
       <c r="K29" t="n">
-        <v>747.2212385058442</v>
+        <v>747.2212385058443</v>
       </c>
       <c r="L29" t="n">
-        <v>1360.757558750118</v>
+        <v>1305.604332585672</v>
       </c>
       <c r="M29" t="n">
-        <v>2004.888250123294</v>
+        <v>2004.888250123295</v>
       </c>
       <c r="N29" t="n">
         <v>2267.881859811826</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.876186022612</v>
+        <v>2879.876186022613</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.524801546835</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q29" t="n">
         <v>3651.253968356586</v>
@@ -6488,10 +6488,10 @@
         <v>3675.425158212813</v>
       </c>
       <c r="S29" t="n">
-        <v>3608.529061576475</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.820285859356</v>
+        <v>3475.820285859355</v>
       </c>
       <c r="U29" t="n">
         <v>3302.532449378773</v>
@@ -6537,7 +6537,7 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I30" t="n">
-        <v>73.50850316425625</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J30" t="n">
         <v>211.6190763424181</v>
@@ -6552,7 +6552,7 @@
         <v>1355.0200838001</v>
       </c>
       <c r="N30" t="n">
-        <v>1607.223267262791</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O30" t="n">
         <v>1908.301463404031</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956783</v>
+        <v>565.0923641956786</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559356</v>
+        <v>476.5286396559359</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317643</v>
+        <v>406.7844586317644</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375354</v>
+        <v>339.2438234375355</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277901</v>
+        <v>272.7263343277898</v>
       </c>
       <c r="G31" t="n">
-        <v>184.6680567204995</v>
+        <v>184.6680567204992</v>
       </c>
       <c r="H31" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I31" t="n">
-        <v>73.50850316425625</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9658000670175</v>
+        <v>146.9658000670179</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803092</v>
+        <v>346.84027378031</v>
       </c>
       <c r="L31" t="n">
-        <v>636.1078879636182</v>
+        <v>636.1078879636185</v>
       </c>
       <c r="M31" t="n">
         <v>947.2070656658267</v>
@@ -6658,13 +6658,13 @@
         <v>1163.450295551769</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029728</v>
+        <v>954.4055839029729</v>
       </c>
       <c r="X31" t="n">
         <v>806.7884913931198</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377539</v>
+        <v>666.368370637754</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404896</v>
+        <v>1870.358268404897</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.768209852649</v>
+        <v>1581.76820985265</v>
       </c>
       <c r="D32" t="n">
-        <v>1303.874969634062</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239824</v>
+        <v>998.4591754239834</v>
       </c>
       <c r="F32" t="n">
         <v>667.8457290225401</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734037</v>
+        <v>331.5230104734038</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113441</v>
+        <v>97.69311781113443</v>
       </c>
       <c r="I32" t="n">
-        <v>73.50850316425625</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J32" t="n">
         <v>294.8071413586974</v>
       </c>
       <c r="K32" t="n">
-        <v>747.2212385058442</v>
+        <v>747.2212385058443</v>
       </c>
       <c r="L32" t="n">
         <v>1360.757558750118</v>
@@ -6710,13 +6710,13 @@
         <v>1615.023078129836</v>
       </c>
       <c r="N32" t="n">
-        <v>2267.881859811826</v>
+        <v>2310.990142986232</v>
       </c>
       <c r="O32" t="n">
-        <v>2879.876186022612</v>
+        <v>2922.984469197018</v>
       </c>
       <c r="P32" t="n">
-        <v>3364.524801546835</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q32" t="n">
         <v>3651.253968356586</v>
@@ -6725,25 +6725,25 @@
         <v>3675.425158212813</v>
       </c>
       <c r="S32" t="n">
-        <v>3608.529061576476</v>
+        <v>3608.529061576477</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.820285859356</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378773</v>
+        <v>3302.532449378774</v>
       </c>
       <c r="V32" t="n">
-        <v>3051.842020423367</v>
+        <v>3051.842020423368</v>
       </c>
       <c r="W32" t="n">
-        <v>2779.445823541417</v>
+        <v>2779.445823541418</v>
       </c>
       <c r="X32" t="n">
-        <v>2486.352523668501</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y32" t="n">
-        <v>2176.585650080854</v>
+        <v>2176.585650080855</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.50850316425625</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J33" t="n">
         <v>211.6190763424181</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956795</v>
+        <v>565.092364195679</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559364</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317653</v>
+        <v>406.7844586317649</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375364</v>
+        <v>339.243823437536</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277903</v>
+        <v>272.7263343277899</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204996</v>
+        <v>184.6680567204992</v>
       </c>
       <c r="H34" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I34" t="n">
-        <v>73.50850316425625</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J34" t="n">
         <v>146.9658000670178</v>
@@ -6862,16 +6862,16 @@
         <v>346.8402737803096</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636186</v>
+        <v>636.1078879636187</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658271</v>
+        <v>947.2070656658267</v>
       </c>
       <c r="N34" t="n">
         <v>1258.216663663533</v>
       </c>
       <c r="O34" t="n">
-        <v>1535.481458529689</v>
+        <v>1535.481458529688</v>
       </c>
       <c r="P34" t="n">
         <v>1760.577804032321</v>
@@ -6886,22 +6886,22 @@
         <v>1691.036709990747</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457694</v>
       </c>
       <c r="U34" t="n">
         <v>1337.762325369493</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029742</v>
+        <v>954.4055839029737</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931207</v>
+        <v>806.7884913931202</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377549</v>
+        <v>666.3683706377544</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.19033990825</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C35" t="n">
         <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.49923441009</v>
+        <v>992.4992344100897</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363472</v>
+        <v>753.9795368363468</v>
       </c>
       <c r="F35" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712406</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
@@ -6968,19 +6968,19 @@
         <v>2629.275777544686</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.88403770044</v>
       </c>
       <c r="V35" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W35" t="n">
-        <v>2133.589605135759</v>
+        <v>2133.589605135758</v>
       </c>
       <c r="X35" t="n">
         <v>1907.39240189918</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947869</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7020,13 @@
         <v>554.6861529154019</v>
       </c>
       <c r="L36" t="n">
-        <v>1103.750244288381</v>
+        <v>736.6183024379562</v>
       </c>
       <c r="M36" t="n">
-        <v>1335.413349768353</v>
+        <v>968.2814079179286</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.616533231043</v>
+        <v>1635.315800932732</v>
       </c>
       <c r="O36" t="n">
         <v>1888.694729372283</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.6445198377813</v>
+        <v>497.9727825323151</v>
       </c>
       <c r="C37" t="n">
-        <v>83.97689193437574</v>
+        <v>476.3051546289095</v>
       </c>
       <c r="D37" t="n">
-        <v>81.12880754654138</v>
+        <v>473.4570702410751</v>
       </c>
       <c r="E37" t="n">
-        <v>80.48426898864963</v>
+        <v>472.8125316831834</v>
       </c>
       <c r="F37" t="n">
-        <v>80.48426898864963</v>
+        <v>472.8125316831834</v>
       </c>
       <c r="G37" t="n">
-        <v>59.32208801769607</v>
+        <v>325.8062394650808</v>
       </c>
       <c r="H37" t="n">
-        <v>53.90176913250937</v>
+        <v>173.1173655553927</v>
       </c>
       <c r="I37" t="n">
         <v>53.90176913250937</v>
@@ -7129,16 +7129,16 @@
         <v>936.1622605244429</v>
       </c>
       <c r="V37" t="n">
-        <v>730.9551746975264</v>
+        <v>828.7463273430574</v>
       </c>
       <c r="W37" t="n">
-        <v>441.5380046605658</v>
+        <v>686.5977123305981</v>
       </c>
       <c r="X37" t="n">
-        <v>360.8170087870498</v>
+        <v>605.8767164570821</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.0244296435197</v>
+        <v>532.3526923380534</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1425.190339908249</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.496377992338</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100892</v>
+        <v>992.4992344100896</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363464</v>
+        <v>753.9795368363467</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712401</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G38" t="n">
         <v>220.8355651584416</v>
@@ -7178,13 +7178,13 @@
         <v>727.6145044740974</v>
       </c>
       <c r="L38" t="n">
-        <v>1147.27820860635</v>
+        <v>927.6662223134251</v>
       </c>
       <c r="M38" t="n">
-        <v>1401.543727986068</v>
+        <v>1181.931741693144</v>
       </c>
       <c r="N38" t="n">
-        <v>1664.5373376746</v>
+        <v>1444.925351381675</v>
       </c>
       <c r="O38" t="n">
         <v>1899.539484435268</v>
@@ -7202,7 +7202,7 @@
         <v>2695.088456625469</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544686</v>
       </c>
       <c r="U38" t="n">
         <v>2522.884037700441</v>
@@ -7217,7 +7217,7 @@
         <v>1907.39240189918</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.521624947869</v>
+        <v>1664.52162494787</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7257,13 @@
         <v>554.6861529154019</v>
       </c>
       <c r="L39" t="n">
-        <v>1103.750244288381</v>
+        <v>806.4078985672591</v>
       </c>
       <c r="M39" t="n">
-        <v>1335.413349768353</v>
+        <v>1038.071004047232</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.616533231043</v>
+        <v>1290.274187509922</v>
       </c>
       <c r="O39" t="n">
         <v>1888.694729372283</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.5523520967957</v>
+        <v>252.9130748622827</v>
       </c>
       <c r="C40" t="n">
-        <v>355.8847241933902</v>
+        <v>231.2454469588771</v>
       </c>
       <c r="D40" t="n">
-        <v>205.7680847810544</v>
+        <v>81.12880754654138</v>
       </c>
       <c r="E40" t="n">
-        <v>205.1235462231626</v>
+        <v>80.48426898864963</v>
       </c>
       <c r="F40" t="n">
-        <v>205.1235462231626</v>
+        <v>80.48426898864963</v>
       </c>
       <c r="G40" t="n">
-        <v>183.961365252209</v>
+        <v>59.32208801769607</v>
       </c>
       <c r="H40" t="n">
-        <v>178.5410463670223</v>
+        <v>53.90176913250937</v>
       </c>
       <c r="I40" t="n">
-        <v>59.32544994413896</v>
+        <v>53.90176913250937</v>
       </c>
       <c r="J40" t="n">
         <v>53.90176913250937</v>
@@ -7357,25 +7357,25 @@
         <v>1212.747081863725</v>
       </c>
       <c r="S40" t="n">
-        <v>1155.644451873023</v>
+        <v>1057.853299227492</v>
       </c>
       <c r="T40" t="n">
-        <v>957.6158455407883</v>
+        <v>980.2451233307764</v>
       </c>
       <c r="U40" t="n">
-        <v>815.7418300889237</v>
+        <v>838.3711078789119</v>
       </c>
       <c r="V40" t="n">
-        <v>708.3258969075382</v>
+        <v>730.9551746975263</v>
       </c>
       <c r="W40" t="n">
-        <v>566.177281895079</v>
+        <v>588.8065596850671</v>
       </c>
       <c r="X40" t="n">
-        <v>485.456286021563</v>
+        <v>360.8170087870498</v>
       </c>
       <c r="Y40" t="n">
-        <v>411.9322619025342</v>
+        <v>287.292984668021</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1203.496377992339</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100901</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363473</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712406</v>
+        <v>490.2621870712411</v>
       </c>
       <c r="G41" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584415</v>
       </c>
       <c r="H41" t="n">
         <v>53.90176913250937</v>
@@ -7412,16 +7412,16 @@
         <v>275.2004073269505</v>
       </c>
       <c r="K41" t="n">
-        <v>727.6145044740974</v>
+        <v>406.7105460286443</v>
       </c>
       <c r="L41" t="n">
-        <v>927.6662223134251</v>
+        <v>606.762263867972</v>
       </c>
       <c r="M41" t="n">
-        <v>1181.931741693144</v>
+        <v>1273.796656882776</v>
       </c>
       <c r="N41" t="n">
-        <v>1444.925351381675</v>
+        <v>1536.790266571307</v>
       </c>
       <c r="O41" t="n">
         <v>1899.539484435268</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>497.9727825323151</v>
+        <v>497.9727825323155</v>
       </c>
       <c r="C43" t="n">
-        <v>476.3051546289095</v>
+        <v>476.30515462891</v>
       </c>
       <c r="D43" t="n">
-        <v>473.4570702410751</v>
+        <v>473.4570702410757</v>
       </c>
       <c r="E43" t="n">
-        <v>325.543976658682</v>
+        <v>472.812531683184</v>
       </c>
       <c r="F43" t="n">
-        <v>178.6540291607717</v>
+        <v>472.812531683184</v>
       </c>
       <c r="G43" t="n">
-        <v>64.74576882932567</v>
+        <v>304.3817956877291</v>
       </c>
       <c r="H43" t="n">
-        <v>59.32544994413896</v>
+        <v>151.692921778041</v>
       </c>
       <c r="I43" t="n">
-        <v>59.32544994413896</v>
+        <v>53.90176913250937</v>
       </c>
       <c r="J43" t="n">
         <v>53.90176913250937</v>
@@ -7600,19 +7600,19 @@
         <v>1078.036275976307</v>
       </c>
       <c r="U43" t="n">
-        <v>936.1622605244429</v>
+        <v>936.162260524443</v>
       </c>
       <c r="V43" t="n">
-        <v>828.7463273430574</v>
+        <v>828.7463273430576</v>
       </c>
       <c r="W43" t="n">
-        <v>686.5977123305981</v>
+        <v>686.5977123305984</v>
       </c>
       <c r="X43" t="n">
-        <v>605.8767164570821</v>
+        <v>605.8767164570825</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.3526923380534</v>
+        <v>532.3526923380538</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>992.4992344100892</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363471</v>
+        <v>753.9795368363464</v>
       </c>
       <c r="F44" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584415</v>
@@ -7646,28 +7646,28 @@
         <v>53.90176913250937</v>
       </c>
       <c r="J44" t="n">
-        <v>275.2004073269505</v>
+        <v>107.7947583065975</v>
       </c>
       <c r="K44" t="n">
-        <v>709.6934606112591</v>
+        <v>239.3048970082912</v>
       </c>
       <c r="L44" t="n">
-        <v>1323.229780855533</v>
+        <v>439.3566148476189</v>
       </c>
       <c r="M44" t="n">
-        <v>1577.495300235251</v>
+        <v>1106.391007862422</v>
       </c>
       <c r="N44" t="n">
-        <v>1840.488909923783</v>
+        <v>1369.384617550954</v>
       </c>
       <c r="O44" t="n">
-        <v>2452.483236134569</v>
+        <v>1981.37894376174</v>
       </c>
       <c r="P44" t="n">
-        <v>2618.551130569024</v>
+        <v>2466.027559285963</v>
       </c>
       <c r="Q44" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769241</v>
       </c>
       <c r="R44" t="n">
         <v>2695.088456625469</v>
@@ -7676,7 +7676,7 @@
         <v>2695.088456625469</v>
       </c>
       <c r="T44" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544686</v>
       </c>
       <c r="U44" t="n">
         <v>2522.88403770044</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.6445198377809</v>
+        <v>497.9727825323155</v>
       </c>
       <c r="C46" t="n">
-        <v>83.9768919343754</v>
+        <v>378.5140019833784</v>
       </c>
       <c r="D46" t="n">
-        <v>81.12880754654113</v>
+        <v>228.3973625710426</v>
       </c>
       <c r="E46" t="n">
-        <v>80.48426898864946</v>
+        <v>80.48426898864952</v>
       </c>
       <c r="F46" t="n">
-        <v>80.48426898864946</v>
+        <v>80.48426898864952</v>
       </c>
       <c r="G46" t="n">
-        <v>59.32208801769599</v>
+        <v>59.32208801769602</v>
       </c>
       <c r="H46" t="n">
         <v>53.90176913250937</v>
@@ -7840,16 +7840,16 @@
         <v>936.162260524443</v>
       </c>
       <c r="V46" t="n">
-        <v>730.9551746975258</v>
+        <v>828.7463273430576</v>
       </c>
       <c r="W46" t="n">
-        <v>441.5380046605652</v>
+        <v>686.5977123305984</v>
       </c>
       <c r="X46" t="n">
-        <v>360.8170087870493</v>
+        <v>605.8767164570825</v>
       </c>
       <c r="Y46" t="n">
-        <v>287.2929846680206</v>
+        <v>532.3526923380538</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>26.05565968592893</v>
+        <v>26.05565968592848</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3.672866058471357</v>
       </c>
       <c r="M12" t="n">
-        <v>221.0259281764552</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>47.11217489459534</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>354.1832303015415</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>368.7865600639894</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>359.9703072268046</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>31.1690277285916</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>41.30107658386422</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>360.6829294929628</v>
+        <v>360.6829294929632</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>368.7865600639896</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>31.1690277285916</v>
+        <v>10.94322352488516</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386424</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>360.6829294929632</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>308.3053528294412</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>368.7865600639896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>359.9703072268046</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>31.1690277285916</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>185.0866151294679</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>41.30107658386424</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>69.28330643979868</v>
+        <v>369.0133757218438</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>41.30107658386424</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>3.541519611593003</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3.541519611591497</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>280.6016921929789</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>209.5416355632087</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>263.1170340840591</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>93.51651551802183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>361.9508850914145</v>
       </c>
       <c r="M29" t="n">
-        <v>393.8032040337963</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>93.51651551802107</v>
       </c>
       <c r="O30" t="n">
-        <v>93.51651551802092</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>393.8032040337963</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>278.2549877932951</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>419.0214237900134</v>
       </c>
       <c r="O36" t="n">
-        <v>93.51651551802092</v>
+        <v>45.33543703146663</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>221.8302891847727</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>221.8302891847726</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>70.49454154475035</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>93.51651551802092</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>416.9382561970557</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>221.8302891847726</v>
+        <v>129.0374455588817</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>306.0433480632472</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>416.9382561970557</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>129.6488701281151</v>
       </c>
       <c r="R44" t="n">
-        <v>41.30107658386424</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667249</v>
       </c>
       <c r="D11" t="n">
         <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
-        <v>96.74832360552971</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040944</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997376</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3816879599484</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157774</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658523</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>162.9754592755034</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.7041579667249</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
-        <v>302.3616362679792</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>104.8128409016282</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040941</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V14" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658523</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>157.4328216684905</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>13.4263266071892</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>13.42632660718786</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.42632660718992</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>13.42632660718874</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>61445.72540377785</v>
+      </c>
+      <c r="C2" t="n">
         <v>61445.72540377787</v>
       </c>
-      <c r="C2" t="n">
-        <v>61445.72540377786</v>
-      </c>
       <c r="D2" t="n">
-        <v>61445.72540377787</v>
+        <v>61445.72540377788</v>
       </c>
       <c r="E2" t="n">
         <v>50832.00920291343</v>
       </c>
       <c r="F2" t="n">
-        <v>54784.33381152878</v>
+        <v>54784.33381152879</v>
       </c>
       <c r="G2" t="n">
         <v>61497.97756997636</v>
@@ -26335,13 +26335,13 @@
         <v>61578.13273982128</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>753993.2266121999</v>
+        <v>753993.2266121998</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921635</v>
+        <v>48878.85800921638</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.98704342604</v>
+        <v>63654.9870434261</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>920.0015970187513</v>
+        <v>920.0015970186606</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542154</v>
+        <v>75818.20182542159</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.98704342604</v>
+        <v>63654.98704342607</v>
       </c>
       <c r="M3" t="n">
-        <v>105300.8148108541</v>
+        <v>105300.814810854</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583635</v>
+        <v>41782.4283158364</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>136703.2860371437</v>
       </c>
       <c r="F4" t="n">
-        <v>155828.6686718298</v>
+        <v>155828.6686718299</v>
       </c>
       <c r="G4" t="n">
-        <v>206726.2449558837</v>
+        <v>206726.2449558838</v>
       </c>
       <c r="H4" t="n">
         <v>206726.2449558838</v>
@@ -26454,7 +26454,7 @@
         <v>204734.8981645466</v>
       </c>
       <c r="O4" t="n">
-        <v>204734.8981645466</v>
+        <v>204734.8981645467</v>
       </c>
       <c r="P4" t="n">
         <v>204734.8981645467</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49400.51786652591</v>
+        <v>49400.5178665259</v>
       </c>
       <c r="F5" t="n">
         <v>59772.47212882795</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.73601102017</v>
+        <v>66461.73601102018</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.73601102017</v>
+        <v>66461.73601102018</v>
       </c>
       <c r="I5" t="n">
         <v>66672.0845622769</v>
       </c>
       <c r="J5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784601</v>
       </c>
       <c r="K5" t="n">
         <v>77601.213117846</v>
@@ -26509,7 +26509,7 @@
         <v>68267.74432235739</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235739</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408455.7543154703</v>
+        <v>-408460.1678933384</v>
       </c>
       <c r="C6" t="n">
-        <v>-408455.7543154703</v>
+        <v>-408460.1678933384</v>
       </c>
       <c r="D6" t="n">
-        <v>-408455.7543154703</v>
+        <v>-408460.1678933384</v>
       </c>
       <c r="E6" t="n">
-        <v>-889265.0213129561</v>
+        <v>-889623.225430853</v>
       </c>
       <c r="F6" t="n">
-        <v>-209695.6649983453</v>
+        <v>-209922.1249626218</v>
       </c>
       <c r="G6" t="n">
-        <v>-275344.9904403536</v>
+        <v>-275347.6622793486</v>
       </c>
       <c r="H6" t="n">
-        <v>-211690.0033969276</v>
+        <v>-211692.6752359225</v>
       </c>
       <c r="I6" t="n">
-        <v>-213128.0709428316</v>
+        <v>-213128.0709428315</v>
       </c>
       <c r="J6" t="n">
-        <v>-286504.2117051387</v>
+        <v>-286504.2117051388</v>
       </c>
       <c r="K6" t="n">
-        <v>-210686.0098797171</v>
+        <v>-210686.0098797172</v>
       </c>
       <c r="L6" t="n">
         <v>-274340.9969231432</v>
       </c>
       <c r="M6" t="n">
-        <v>-316725.3245579369</v>
+        <v>-316725.3245579368</v>
       </c>
       <c r="N6" t="n">
-        <v>-253206.9380629191</v>
+        <v>-253206.9380629192</v>
       </c>
       <c r="O6" t="n">
+        <v>-211424.5097470829</v>
+      </c>
+      <c r="P6" t="n">
         <v>-211424.5097470828</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-211424.5097470829</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="F2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="G2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="J2" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="K2" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="L2" t="n">
         <v>79.56873380428259</v>
@@ -26722,7 +26722,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="O2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="P2" t="n">
         <v>145.7958694742564</v>
@@ -26747,7 +26747,7 @@
         <v>690.1599463678448</v>
       </c>
       <c r="F3" t="n">
-        <v>690.1599463678449</v>
+        <v>690.1599463678448</v>
       </c>
       <c r="G3" t="n">
         <v>690.1599463678448</v>
@@ -26759,7 +26759,7 @@
         <v>690.1599463678448</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678447</v>
+        <v>690.1599463678448</v>
       </c>
       <c r="K3" t="n">
         <v>690.1599463678448</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249122</v>
+        <v>455.0290650249121</v>
       </c>
       <c r="F4" t="n">
         <v>625.620418023301</v>
@@ -26808,16 +26808,16 @@
         <v>625.620418023301</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426551</v>
+        <v>629.0800981426547</v>
       </c>
       <c r="J4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532034</v>
       </c>
       <c r="K4" t="n">
-        <v>918.8562895532032</v>
+        <v>918.8562895532033</v>
       </c>
       <c r="L4" t="n">
-        <v>918.8562895532032</v>
+        <v>918.8562895532033</v>
       </c>
       <c r="M4" t="n">
         <v>673.7721141563671</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="M2" t="n">
         <v>66.22713566997375</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249122</v>
+        <v>455.0290650249121</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983888</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.459680119354061</v>
+        <v>3.45968011935372</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105484</v>
+        <v>289.7761914105487</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280762</v>
+        <v>209.9448896280759</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983888</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.0290650249122</v>
+        <v>455.0290650249121</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983888</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="D12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="E12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="F12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="G12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="H12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="I12" t="n">
         <v>38.28573116285298</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084504</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="T12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="U12" t="n">
-        <v>1.248480811745992</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>79.56873380428256</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>79.56873380428256</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>9.237407409830809</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428196</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="C14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="D14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="E14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="F14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="G14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="H14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="I14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="T14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="U14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="V14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="W14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="X14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.28573116285298</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,10 +28454,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>79.56873380428256</v>
+        <v>63.32508893222634</v>
       </c>
       <c r="T15" t="n">
-        <v>22.04208629079642</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="C16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="D16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="E16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="F16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="G16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="H16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="I16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="J16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="K16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="L16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="M16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="N16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="O16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="P16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="R16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="S16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="T16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="U16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="V16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="W16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="X16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="E17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="F17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="G17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="I17" t="n">
         <v>103.511502304692</v>
@@ -28615,22 +28615,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>63.32508893222654</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.28573116285298</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>101.610820095079</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H19" t="n">
-        <v>90.5955532145239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>118.0234404586545</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.3338652339669</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>159.1374676085651</v>
+        <v>65.49545580192108</v>
       </c>
       <c r="U19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="E20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="F20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="G20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="I20" t="n">
         <v>103.511502304692</v>
@@ -28852,22 +28852,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>101.6108200950795</v>
       </c>
       <c r="H21" t="n">
-        <v>63.32508893222654</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285298</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.1374676085651</v>
+        <v>88.04904106214431</v>
       </c>
       <c r="H22" t="n">
         <v>151.1619851705912</v>
@@ -29007,25 +29007,25 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V22" t="n">
-        <v>98.5710356524981</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="E23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="F23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="G23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="I23" t="n">
         <v>103.511502304692</v>
@@ -29089,22 +29089,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="24">
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084504</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.19556688980575</v>
+        <v>88.18449348789139</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.55812102886024</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29205,13 +29205,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>159.1374676085651</v>
+        <v>103.2990581765193</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1619851705912</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>118.0234404586545</v>
@@ -29244,25 +29244,25 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="T25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="C26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="D26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="E26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="F26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="G26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="H26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="I26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="T26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="U26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="V26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="W26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="X26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="C28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="D28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="E28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="F28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="G28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="H28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="I28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="K28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="L28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="M28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="N28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="O28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="P28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428155</v>
       </c>
       <c r="R28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="S28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="T28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="U28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="V28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="W28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="X28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="C29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="D29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="E29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="F29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="G29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="H29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="I29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="T29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="U29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="V29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="W29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="X29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="C31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="D31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="E31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="F31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="G31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="H31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="I31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="J31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="K31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="L31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="M31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="N31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="O31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="P31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="R31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="S31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="T31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="U31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="V31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="W31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="X31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428262</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>79.56873380428259</v>
       </c>
       <c r="F32" t="n">
-        <v>79.56873380428362</v>
+        <v>79.56873380428259</v>
       </c>
       <c r="G32" t="n">
         <v>79.56873380428259</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428316</v>
       </c>
       <c r="T32" t="n">
         <v>79.56873380428259</v>
@@ -30156,13 +30156,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.7958694742563</v>
+        <v>21.21019933957876</v>
       </c>
       <c r="H37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>5.369444003513294</v>
@@ -30201,16 +30201,16 @@
         <v>145.7958694742563</v>
       </c>
       <c r="V37" t="n">
-        <v>48.98262835518074</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X37" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
     <row r="38">
@@ -30399,10 +30399,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.369444003513294</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,10 +30429,10 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S40" t="n">
+        <v>48.98262835518071</v>
+      </c>
+      <c r="T40" t="n">
         <v>145.7958694742563</v>
-      </c>
-      <c r="T40" t="n">
-        <v>26.57964334309239</v>
       </c>
       <c r="U40" t="n">
         <v>145.7958694742563</v>
@@ -30444,7 +30444,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="X40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>145.7958694742563</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="C41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="D41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="E41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="F41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="G41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="H41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="I41" t="n">
         <v>103.511502304692</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="T41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="U41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="V41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="W41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="X41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="C43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="D43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>53.9772509073688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>118.0234404586545</v>
+        <v>21.21019933957818</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.369444003513294</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="T43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="U43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="V43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="X43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742564</v>
       </c>
     </row>
     <row r="44">
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="C46" t="n">
-        <v>145.7958694742564</v>
+        <v>48.9826283551801</v>
       </c>
       <c r="D46" t="n">
-        <v>145.7958694742564</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.7958694742564</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30912,10 +30912,10 @@
         <v>145.7958694742564</v>
       </c>
       <c r="V46" t="n">
-        <v>48.98262835517994</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.7958694742564</v>
       </c>
       <c r="X46" t="n">
         <v>145.7958694742564</v>
@@ -31993,7 +31993,7 @@
         <v>28.41447457583794</v>
       </c>
       <c r="I14" t="n">
-        <v>106.964387265714</v>
+        <v>106.9643872657139</v>
       </c>
       <c r="J14" t="n">
         <v>235.4832673287955</v>
@@ -32002,16 +32002,16 @@
         <v>352.9283749860854</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319344</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865843</v>
+        <v>487.1800911865842</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930874</v>
+        <v>495.0631743930873</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405436</v>
+        <v>467.4741172405435</v>
       </c>
       <c r="P14" t="n">
         <v>398.9783436688605</v>
@@ -32023,7 +32023,7 @@
         <v>174.2844612302679</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198902</v>
+        <v>63.22420011198901</v>
       </c>
       <c r="T14" t="n">
         <v>12.14542779990046</v>
@@ -32072,19 +32072,19 @@
         <v>14.33709624435844</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856211</v>
+        <v>51.11090168856209</v>
       </c>
       <c r="J15" t="n">
-        <v>140.2522207991486</v>
+        <v>140.2522207991485</v>
       </c>
       <c r="K15" t="n">
         <v>239.7133843908014</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824543</v>
       </c>
       <c r="M15" t="n">
-        <v>376.1371707704754</v>
+        <v>376.1371707704753</v>
       </c>
       <c r="N15" t="n">
         <v>386.0924024496871</v>
@@ -32096,19 +32096,19 @@
         <v>283.4734315562569</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.4944818782053</v>
+        <v>189.4944818782052</v>
       </c>
       <c r="R15" t="n">
-        <v>92.16890755455864</v>
+        <v>92.16890755455863</v>
       </c>
       <c r="S15" t="n">
         <v>27.57384314026246</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151408</v>
+        <v>5.983556516151407</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09766414335394036</v>
+        <v>0.09766414335394034</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.244550722958409</v>
       </c>
       <c r="H16" t="n">
-        <v>11.06518733684841</v>
+        <v>11.0651873368484</v>
       </c>
       <c r="I16" t="n">
         <v>37.42703446860379</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315949</v>
+        <v>87.98973611315948</v>
       </c>
       <c r="K16" t="n">
         <v>144.5941658128042</v>
@@ -32163,10 +32163,10 @@
         <v>185.0307502114711</v>
       </c>
       <c r="M16" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724712</v>
       </c>
       <c r="N16" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050809</v>
       </c>
       <c r="O16" t="n">
         <v>175.9115876414304</v>
@@ -32178,13 +32178,13 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R16" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320261</v>
       </c>
       <c r="S16" t="n">
         <v>21.68912487192062</v>
       </c>
       <c r="T16" t="n">
-        <v>5.317625816276836</v>
+        <v>5.317625816276835</v>
       </c>
       <c r="U16" t="n">
         <v>0.06788458488864055</v>
@@ -32938,22 +32938,22 @@
         <v>2.774512347207414</v>
       </c>
       <c r="H26" t="n">
-        <v>28.41447457583793</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I26" t="n">
         <v>106.9643872657139</v>
       </c>
       <c r="J26" t="n">
-        <v>235.4832673287954</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860853</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8388572319343</v>
+        <v>437.8388572319344</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865841</v>
+        <v>487.1800911865842</v>
       </c>
       <c r="N26" t="n">
         <v>495.0631743930873</v>
@@ -32962,22 +32962,22 @@
         <v>467.4741172405435</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688604</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.6161202344948</v>
+        <v>299.6161202344949</v>
       </c>
       <c r="R26" t="n">
         <v>174.2844612302679</v>
       </c>
       <c r="S26" t="n">
-        <v>63.224200111989</v>
+        <v>63.22420011198901</v>
       </c>
       <c r="T26" t="n">
         <v>12.14542779990046</v>
       </c>
       <c r="U26" t="n">
-        <v>0.221960987776593</v>
+        <v>0.2219609877765931</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.484494978979892</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H27" t="n">
         <v>14.33709624435844</v>
@@ -33026,7 +33026,7 @@
         <v>140.2522207991485</v>
       </c>
       <c r="K27" t="n">
-        <v>239.7133843908013</v>
+        <v>239.7133843908014</v>
       </c>
       <c r="L27" t="n">
         <v>322.3242277824543</v>
@@ -33035,10 +33035,10 @@
         <v>376.1371707704753</v>
       </c>
       <c r="N27" t="n">
-        <v>386.092402449687</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O27" t="n">
-        <v>353.1991189680799</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P27" t="n">
         <v>283.4734315562569</v>
@@ -33047,16 +33047,16 @@
         <v>189.4944818782052</v>
       </c>
       <c r="R27" t="n">
-        <v>92.16890755455861</v>
+        <v>92.16890755455863</v>
       </c>
       <c r="S27" t="n">
-        <v>27.57384314026245</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T27" t="n">
-        <v>5.983556516151406</v>
+        <v>5.983556516151407</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09766414335394033</v>
+        <v>0.09766414335394034</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,22 +33093,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.244550722958408</v>
+        <v>1.244550722958409</v>
       </c>
       <c r="H28" t="n">
         <v>11.0651873368484</v>
       </c>
       <c r="I28" t="n">
-        <v>37.42703446860378</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315947</v>
+        <v>87.98973611315948</v>
       </c>
       <c r="K28" t="n">
-        <v>144.5941658128041</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L28" t="n">
-        <v>185.030750211471</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M28" t="n">
         <v>195.0889828724712</v>
@@ -33117,25 +33117,25 @@
         <v>190.4502029050809</v>
       </c>
       <c r="O28" t="n">
-        <v>175.9115876414303</v>
+        <v>175.9115876414304</v>
       </c>
       <c r="P28" t="n">
         <v>150.5227528930787</v>
       </c>
       <c r="Q28" t="n">
-        <v>104.2141519015445</v>
+        <v>104.2141519015446</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320259</v>
+        <v>55.95952614320261</v>
       </c>
       <c r="S28" t="n">
         <v>21.68912487192062</v>
       </c>
       <c r="T28" t="n">
-        <v>5.317625816276834</v>
+        <v>5.317625816276835</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06788458488864053</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>237.3759058188568</v>
       </c>
       <c r="P11" t="n">
-        <v>193.8010075995199</v>
+        <v>193.8010075995194</v>
       </c>
       <c r="Q11" t="n">
         <v>289.6254210199501</v>
@@ -35489,13 +35489,13 @@
         <v>139.5056294728907</v>
       </c>
       <c r="K12" t="n">
-        <v>101.8719454164424</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L12" t="n">
-        <v>183.7698480025801</v>
+        <v>187.4427140610515</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0290650249122</v>
+        <v>234.003136848457</v>
       </c>
       <c r="N12" t="n">
         <v>254.7506903663538</v>
@@ -35504,7 +35504,7 @@
         <v>210.6028745236355</v>
       </c>
       <c r="P12" t="n">
-        <v>196.611199036522</v>
+        <v>149.4990241419266</v>
       </c>
       <c r="Q12" t="n">
         <v>259.5899955280328</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076926</v>
+        <v>74.19928980076867</v>
       </c>
       <c r="K13" t="n">
         <v>201.8934077912039</v>
@@ -35586,7 +35586,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413273</v>
+        <v>97.62084245413276</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>54.43736280210922</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K14" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2556725634887</v>
+        <v>202.0724422619471</v>
       </c>
       <c r="M14" t="n">
-        <v>625.620418023301</v>
+        <v>256.8338579593114</v>
       </c>
       <c r="N14" t="n">
-        <v>625.620418023301</v>
+        <v>265.6501107964964</v>
       </c>
       <c r="O14" t="n">
-        <v>237.3759058188569</v>
+        <v>268.5449335474484</v>
       </c>
       <c r="P14" t="n">
-        <v>167.745347913591</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.31043036004539</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.4153432891182</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>366.337182429021</v>
       </c>
       <c r="L15" t="n">
-        <v>544.452777495543</v>
+        <v>544.4527774955434</v>
       </c>
       <c r="M15" t="n">
-        <v>234.0031368484571</v>
+        <v>234.003136848457</v>
       </c>
       <c r="N15" t="n">
         <v>254.7506903663538</v>
       </c>
       <c r="O15" t="n">
-        <v>210.6028745236356</v>
+        <v>210.6028745236355</v>
       </c>
       <c r="P15" t="n">
         <v>467.9617927818638</v>
       </c>
       <c r="Q15" t="n">
-        <v>259.5899955280329</v>
+        <v>259.5899955280328</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076928</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K16" t="n">
         <v>201.8934077912039</v>
@@ -35884,19 +35884,19 @@
         <v>223.533977974183</v>
       </c>
       <c r="K17" t="n">
-        <v>456.9839365122696</v>
+        <v>132.8385239411048</v>
       </c>
       <c r="L17" t="n">
         <v>202.0724422619471</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8338579593114</v>
+        <v>625.620418023301</v>
       </c>
       <c r="N17" t="n">
         <v>265.6501107964964</v>
       </c>
       <c r="O17" t="n">
-        <v>268.5449335474484</v>
+        <v>248.319129343742</v>
       </c>
       <c r="P17" t="n">
         <v>489.5440560850736</v>
@@ -35905,7 +35905,7 @@
         <v>289.6254210199501</v>
       </c>
       <c r="R17" t="n">
-        <v>24.4153432891182</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>366.337182429021</v>
       </c>
       <c r="L18" t="n">
-        <v>554.6101933060393</v>
+        <v>544.4527774955434</v>
       </c>
       <c r="M18" t="n">
         <v>234.003136848457</v>
@@ -35978,7 +35978,7 @@
         <v>210.6028745236355</v>
       </c>
       <c r="P18" t="n">
-        <v>457.8043769713678</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q18" t="n">
         <v>259.5899955280328</v>
@@ -36121,28 +36121,28 @@
         <v>223.533977974183</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8385239411048</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L20" t="n">
         <v>202.0724422619471</v>
       </c>
       <c r="M20" t="n">
-        <v>625.620418023301</v>
+        <v>256.8338579593114</v>
       </c>
       <c r="N20" t="n">
-        <v>625.620418023301</v>
+        <v>265.6501107964964</v>
       </c>
       <c r="O20" t="n">
-        <v>237.3759058188568</v>
+        <v>268.5449335474484</v>
       </c>
       <c r="P20" t="n">
-        <v>167.7453479135909</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.3970454895133</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.4153432891182</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>223.533977974183</v>
       </c>
       <c r="K23" t="n">
-        <v>456.9839365122696</v>
+        <v>132.8385239411048</v>
       </c>
       <c r="L23" t="n">
         <v>202.0724422619471</v>
@@ -36370,7 +36370,7 @@
         <v>265.6501107964964</v>
       </c>
       <c r="O23" t="n">
-        <v>306.6592122586555</v>
+        <v>606.3892815407006</v>
       </c>
       <c r="P23" t="n">
         <v>489.5440560850736</v>
@@ -36379,7 +36379,7 @@
         <v>289.6254210199501</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.4153432891182</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>554.6101933060393</v>
       </c>
       <c r="M24" t="n">
-        <v>237.54465646005</v>
+        <v>234.003136848457</v>
       </c>
       <c r="N24" t="n">
         <v>254.7506903663538</v>
       </c>
       <c r="O24" t="n">
-        <v>210.6028745236355</v>
+        <v>214.144394135227</v>
       </c>
       <c r="P24" t="n">
         <v>467.9617927818638</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>223.5339779741829</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K26" t="n">
-        <v>132.8385239411048</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L26" t="n">
-        <v>619.7336568123975</v>
+        <v>619.7336568123976</v>
       </c>
       <c r="M26" t="n">
-        <v>537.4355501522904</v>
+        <v>706.3473914521439</v>
       </c>
       <c r="N26" t="n">
-        <v>702.9970352084805</v>
+        <v>702.9970352084806</v>
       </c>
       <c r="O26" t="n">
-        <v>618.1760870816021</v>
+        <v>237.3759058188568</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850735</v>
+        <v>377.2869834767996</v>
       </c>
       <c r="Q26" t="n">
-        <v>289.62542101995</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911817</v>
+        <v>24.4153432891182</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>139.5056294728907</v>
       </c>
       <c r="K27" t="n">
-        <v>366.3371824290209</v>
+        <v>364.9889795005014</v>
       </c>
       <c r="L27" t="n">
-        <v>554.6101933060393</v>
+        <v>183.7698480025801</v>
       </c>
       <c r="M27" t="n">
-        <v>327.5196523664788</v>
+        <v>699.7082005984569</v>
       </c>
       <c r="N27" t="n">
-        <v>254.7506903663537</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O27" t="n">
         <v>210.6028745236355</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K28" t="n">
         <v>201.8934077912039</v>
@@ -36759,19 +36759,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M28" t="n">
-        <v>314.2415936385944</v>
+        <v>314.2415936385945</v>
       </c>
       <c r="N28" t="n">
         <v>314.1511090885921</v>
       </c>
       <c r="O28" t="n">
-        <v>280.0654493597526</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P28" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413276</v>
+        <v>97.62084245413172</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>456.9839365122696</v>
       </c>
       <c r="L29" t="n">
-        <v>619.7336568123976</v>
+        <v>564.0233273533617</v>
       </c>
       <c r="M29" t="n">
-        <v>650.6370619931077</v>
+        <v>706.3473914521439</v>
       </c>
       <c r="N29" t="n">
         <v>265.6501107964964</v>
@@ -36920,10 +36920,10 @@
         <v>234.003136848457</v>
       </c>
       <c r="N30" t="n">
-        <v>254.7506903663538</v>
+        <v>348.2672058843748</v>
       </c>
       <c r="O30" t="n">
-        <v>304.1193900416565</v>
+        <v>210.6028745236355</v>
       </c>
       <c r="P30" t="n">
         <v>467.9617927818638</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K31" t="n">
         <v>201.8934077912039</v>
@@ -36996,19 +36996,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
-        <v>314.2415936385944</v>
+        <v>314.2415936385945</v>
       </c>
       <c r="N31" t="n">
         <v>314.1511090885921</v>
       </c>
       <c r="O31" t="n">
-        <v>280.0654493597526</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P31" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,13 +37078,13 @@
         <v>256.8338579593114</v>
       </c>
       <c r="N32" t="n">
-        <v>659.4533148302927</v>
+        <v>702.9970352084806</v>
       </c>
       <c r="O32" t="n">
         <v>618.1760870816022</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850736</v>
+        <v>446.000335706886</v>
       </c>
       <c r="Q32" t="n">
         <v>289.6254210199501</v>
@@ -37388,16 +37388,16 @@
         <v>366.337182429021</v>
       </c>
       <c r="L36" t="n">
-        <v>554.6101933060393</v>
+        <v>183.7698480025801</v>
       </c>
       <c r="M36" t="n">
         <v>234.003136848457</v>
       </c>
       <c r="N36" t="n">
-        <v>254.7506903663538</v>
+        <v>673.7721141563671</v>
       </c>
       <c r="O36" t="n">
-        <v>304.1193900416565</v>
+        <v>255.9383115551022</v>
       </c>
       <c r="P36" t="n">
         <v>467.9617927818638</v>
@@ -37546,7 +37546,7 @@
         <v>456.9839365122696</v>
       </c>
       <c r="L38" t="n">
-        <v>423.9027314467198</v>
+        <v>202.0724422619471</v>
       </c>
       <c r="M38" t="n">
         <v>256.8338579593114</v>
@@ -37555,7 +37555,7 @@
         <v>265.6501107964964</v>
       </c>
       <c r="O38" t="n">
-        <v>237.3759058188568</v>
+        <v>459.2061950036294</v>
       </c>
       <c r="P38" t="n">
         <v>489.5440560850736</v>
@@ -37625,7 +37625,7 @@
         <v>366.337182429021</v>
       </c>
       <c r="L39" t="n">
-        <v>554.6101933060393</v>
+        <v>254.2643895473305</v>
       </c>
       <c r="M39" t="n">
         <v>234.003136848457</v>
@@ -37634,7 +37634,7 @@
         <v>254.7506903663538</v>
       </c>
       <c r="O39" t="n">
-        <v>304.1193900416565</v>
+        <v>604.4651938003651</v>
       </c>
       <c r="P39" t="n">
         <v>467.9617927818638</v>
@@ -37780,19 +37780,19 @@
         <v>223.533977974183</v>
       </c>
       <c r="K41" t="n">
-        <v>456.9839365122696</v>
+        <v>132.8385239411048</v>
       </c>
       <c r="L41" t="n">
         <v>202.0724422619471</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8338579593114</v>
+        <v>673.7721141563671</v>
       </c>
       <c r="N41" t="n">
         <v>265.6501107964964</v>
       </c>
       <c r="O41" t="n">
-        <v>459.2061950036294</v>
+        <v>366.4133513777385</v>
       </c>
       <c r="P41" t="n">
         <v>489.5440560850736</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>223.533977974183</v>
+        <v>54.43736280210919</v>
       </c>
       <c r="K44" t="n">
-        <v>438.881872004352</v>
+        <v>132.8385239411048</v>
       </c>
       <c r="L44" t="n">
-        <v>619.7336568123976</v>
+        <v>202.0724422619471</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8338579593114</v>
+        <v>673.7721141563671</v>
       </c>
       <c r="N44" t="n">
         <v>265.6501107964964</v>
@@ -38032,13 +38032,13 @@
         <v>618.1760870816022</v>
       </c>
       <c r="P44" t="n">
-        <v>167.7453479135909</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.31043036004539</v>
+        <v>206.9593004881605</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.4153432891182</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
